--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H2">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I2">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J2">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>13179.91189470507</v>
+        <v>36177.14905260524</v>
       </c>
       <c r="R2">
-        <v>118619.2070523457</v>
+        <v>325594.3414734471</v>
       </c>
       <c r="S2">
-        <v>0.07200330613326442</v>
+        <v>0.1606595266113721</v>
       </c>
       <c r="T2">
-        <v>0.07200330613326444</v>
+        <v>0.1606595266113721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H3">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I3">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J3">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>20248.34752294553</v>
+        <v>29792.12567159332</v>
       </c>
       <c r="R3">
-        <v>182235.1277065098</v>
+        <v>268129.1310443399</v>
       </c>
       <c r="S3">
-        <v>0.1106189462444808</v>
+        <v>0.132304201201283</v>
       </c>
       <c r="T3">
-        <v>0.1106189462444808</v>
+        <v>0.132304201201283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H4">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I4">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J4">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>10117.95769002113</v>
+        <v>17188.02056065541</v>
       </c>
       <c r="R4">
-        <v>91061.6192101902</v>
+        <v>154692.1850458987</v>
       </c>
       <c r="S4">
-        <v>0.05527551404123486</v>
+        <v>0.07633048261061272</v>
       </c>
       <c r="T4">
-        <v>0.05527551404123487</v>
+        <v>0.07633048261061273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H5">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I5">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J5">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>16104.52791124396</v>
+        <v>17372.87204313549</v>
       </c>
       <c r="R5">
-        <v>144940.7512011956</v>
+        <v>156355.8483882194</v>
       </c>
       <c r="S5">
-        <v>0.08798080462061754</v>
+        <v>0.07715139173270734</v>
       </c>
       <c r="T5">
-        <v>0.08798080462061755</v>
+        <v>0.07715139173270735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H6">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I6">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J6">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>8089.65439098895</v>
+        <v>13085.79335926522</v>
       </c>
       <c r="R6">
-        <v>72806.88951890054</v>
+        <v>117772.140233387</v>
       </c>
       <c r="S6">
-        <v>0.0441946703650342</v>
+        <v>0.05811285359652707</v>
       </c>
       <c r="T6">
-        <v>0.04419467036503421</v>
+        <v>0.05811285359652708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H7">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I7">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J7">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>10619.87019276192</v>
+        <v>21893.66248854848</v>
       </c>
       <c r="R7">
-        <v>95578.83173485726</v>
+        <v>197042.9623969363</v>
       </c>
       <c r="S7">
-        <v>0.05801751716505515</v>
+        <v>0.09722782317878782</v>
       </c>
       <c r="T7">
-        <v>0.05801751716505516</v>
+        <v>0.09722782317878785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J8">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>9960.496662364394</v>
+        <v>18581.93433986301</v>
       </c>
       <c r="R8">
-        <v>89644.46996127954</v>
+        <v>167237.4090587671</v>
       </c>
       <c r="S8">
-        <v>0.05441528715436306</v>
+        <v>0.0825207307028248</v>
       </c>
       <c r="T8">
-        <v>0.05441528715436308</v>
+        <v>0.08252073070282483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J9">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>15302.3479619555</v>
+        <v>15302.34796195551</v>
       </c>
       <c r="R9">
         <v>137721.1316575996</v>
       </c>
       <c r="S9">
-        <v>0.08359840746014884</v>
+        <v>0.06795637699464389</v>
       </c>
       <c r="T9">
-        <v>0.08359840746014888</v>
+        <v>0.06795637699464391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>315.206086</v>
       </c>
       <c r="I10">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J10">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>7646.476289563603</v>
+        <v>8828.409033168806</v>
       </c>
       <c r="R10">
-        <v>68818.28660607242</v>
+        <v>79455.68129851925</v>
       </c>
       <c r="S10">
-        <v>0.04177353972596613</v>
+        <v>0.03920618548294147</v>
       </c>
       <c r="T10">
-        <v>0.04177353972596614</v>
+        <v>0.03920618548294148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>315.206086</v>
       </c>
       <c r="I11">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J11">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>12170.72601019</v>
+        <v>8923.355655554016</v>
       </c>
       <c r="R11">
-        <v>109536.53409171</v>
+        <v>80310.20089998614</v>
       </c>
       <c r="S11">
-        <v>0.066490012814718</v>
+        <v>0.03962783505470777</v>
       </c>
       <c r="T11">
-        <v>0.06649001281471804</v>
+        <v>0.03962783505470778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>315.206086</v>
       </c>
       <c r="I12">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J12">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>6113.620197529397</v>
+        <v>6721.351995794456</v>
       </c>
       <c r="R12">
-        <v>55022.58177776458</v>
+        <v>60492.16796215011</v>
       </c>
       <c r="S12">
-        <v>0.03339937855290709</v>
+        <v>0.02984893111014713</v>
       </c>
       <c r="T12">
-        <v>0.0333993785529071</v>
+        <v>0.02984893111014713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>315.206086</v>
       </c>
       <c r="I13">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J13">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>8025.788218830518</v>
+        <v>11245.40240110581</v>
       </c>
       <c r="R13">
-        <v>72232.09396947466</v>
+        <v>101208.6216099523</v>
       </c>
       <c r="S13">
-        <v>0.04384576245258215</v>
+        <v>0.04993983975047203</v>
       </c>
       <c r="T13">
-        <v>0.04384576245258218</v>
+        <v>0.04993983975047204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H14">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I14">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J14">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>19.83794322006133</v>
+        <v>29.21410401150222</v>
       </c>
       <c r="R14">
-        <v>178.5414889805519</v>
+        <v>262.92693610352</v>
       </c>
       <c r="S14">
-        <v>0.0001083768624661475</v>
+        <v>0.0001297372580144022</v>
       </c>
       <c r="T14">
-        <v>0.0001083768624661475</v>
+        <v>0.0001297372580144022</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H15">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I15">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J15">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>30.47710574011021</v>
+        <v>24.05801122769778</v>
       </c>
       <c r="R15">
-        <v>274.2939516609919</v>
+        <v>216.52210104928</v>
       </c>
       <c r="S15">
-        <v>0.0001664997757339053</v>
+        <v>0.0001068395049436505</v>
       </c>
       <c r="T15">
-        <v>0.0001664997757339054</v>
+        <v>0.0001068395049436505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H16">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I16">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J16">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>15.22919665633422</v>
+        <v>13.87982838782222</v>
       </c>
       <c r="R16">
-        <v>137.062769907008</v>
+        <v>124.9184554904</v>
       </c>
       <c r="S16">
-        <v>8.319877384387152E-05</v>
+        <v>6.163909309138933E-05</v>
       </c>
       <c r="T16">
-        <v>8.319877384387155E-05</v>
+        <v>6.163909309138934E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H17">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I17">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J17">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>24.23997313802222</v>
+        <v>14.02910135645778</v>
       </c>
       <c r="R17">
-        <v>218.1597582422</v>
+        <v>126.26191220812</v>
       </c>
       <c r="S17">
-        <v>0.0001324256353504384</v>
+        <v>6.230200117300711E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001324256353504385</v>
+        <v>6.230200117300713E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H18">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I18">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J18">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>12.17626534687466</v>
+        <v>10.56716016275111</v>
       </c>
       <c r="R18">
-        <v>109.586388121872</v>
+        <v>95.10444146476</v>
       </c>
       <c r="S18">
-        <v>6.652027481937079E-05</v>
+        <v>4.692782581915157E-05</v>
       </c>
       <c r="T18">
-        <v>6.652027481937081E-05</v>
+        <v>4.692782581915157E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H19">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I19">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J19">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>15.98465783167111</v>
+        <v>17.67977162056444</v>
       </c>
       <c r="R19">
-        <v>143.86192048504</v>
+        <v>159.11794458508</v>
       </c>
       <c r="S19">
-        <v>8.732594121146453E-05</v>
+        <v>7.851430567474486E-05</v>
       </c>
       <c r="T19">
-        <v>8.732594121146457E-05</v>
+        <v>7.851430567474488E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H20">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I20">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J20">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>7557.758225226313</v>
+        <v>5211.47162654839</v>
       </c>
       <c r="R20">
-        <v>68019.82402703683</v>
+        <v>46903.24463893551</v>
       </c>
       <c r="S20">
-        <v>0.04128886319724101</v>
+        <v>0.02314368562465722</v>
       </c>
       <c r="T20">
-        <v>0.04128886319724103</v>
+        <v>0.02314368562465723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H21">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I21">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J21">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>11611.0119901683</v>
+        <v>4291.68195112079</v>
       </c>
       <c r="R21">
-        <v>104499.1079115147</v>
+        <v>38625.13756008711</v>
       </c>
       <c r="S21">
-        <v>0.06343223365407782</v>
+        <v>0.01905898083983991</v>
       </c>
       <c r="T21">
-        <v>0.06343223365407787</v>
+        <v>0.01905898083983991</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H22">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I22">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J22">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>5801.941512596142</v>
+        <v>2476.007198304518</v>
       </c>
       <c r="R22">
-        <v>52217.47361336528</v>
+        <v>22284.06478474066</v>
       </c>
       <c r="S22">
-        <v>0.03169664366774611</v>
+        <v>0.01099572948071503</v>
       </c>
       <c r="T22">
-        <v>0.03169664366774613</v>
+        <v>0.01099572948071504</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H23">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I23">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J23">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>9234.821086587723</v>
+        <v>2502.63583768872</v>
       </c>
       <c r="R23">
-        <v>83113.38977928951</v>
+        <v>22523.72253919848</v>
       </c>
       <c r="S23">
-        <v>0.05045084178830018</v>
+        <v>0.01111398491846526</v>
       </c>
       <c r="T23">
-        <v>0.0504508417883002</v>
+        <v>0.01111398491846526</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H24">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I24">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J24">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>4638.851344468946</v>
+        <v>1885.06398620637</v>
       </c>
       <c r="R24">
-        <v>41749.66210022052</v>
+        <v>16965.57587585733</v>
       </c>
       <c r="S24">
-        <v>0.02534255434565459</v>
+        <v>0.008371402821589997</v>
       </c>
       <c r="T24">
-        <v>0.02534255434565461</v>
+        <v>0.008371402821589997</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H25">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I25">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J25">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>6089.753250355712</v>
+        <v>3153.874858806229</v>
       </c>
       <c r="R25">
-        <v>54807.77925320141</v>
+        <v>28384.87372925606</v>
       </c>
       <c r="S25">
-        <v>0.03326899079936651</v>
+        <v>0.01400607994484373</v>
       </c>
       <c r="T25">
-        <v>0.03326899079936652</v>
+        <v>0.01400607994484373</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H26">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I26">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J26">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>45.16868460691366</v>
+        <v>96.57703155178667</v>
       </c>
       <c r="R26">
-        <v>406.518161462223</v>
+        <v>869.19328396608</v>
       </c>
       <c r="S26">
-        <v>0.0002467614845509746</v>
+        <v>0.0004288900750050736</v>
       </c>
       <c r="T26">
-        <v>0.0002467614845509747</v>
+        <v>0.0004288900750050737</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H27">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I27">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J27">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>69.39281767448978</v>
+        <v>79.53183532501333</v>
       </c>
       <c r="R27">
-        <v>624.535359070408</v>
+        <v>715.7865179251199</v>
       </c>
       <c r="S27">
-        <v>0.0003791005838569678</v>
+        <v>0.0003531938626581766</v>
       </c>
       <c r="T27">
-        <v>0.000379100583856968</v>
+        <v>0.0003531938626581767</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H28">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I28">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J28">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>34.67510582906578</v>
+        <v>45.88443388906667</v>
       </c>
       <c r="R28">
-        <v>312.075952461592</v>
+        <v>412.9599050016</v>
       </c>
       <c r="S28">
-        <v>0.0001894339112552492</v>
+        <v>0.0002037687219832869</v>
       </c>
       <c r="T28">
-        <v>0.0001894339112552493</v>
+        <v>0.0002037687219832869</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H29">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I29">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J29">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>55.19159367510278</v>
+        <v>46.37790581605334</v>
       </c>
       <c r="R29">
-        <v>496.724343075925</v>
+        <v>417.40115234448</v>
       </c>
       <c r="S29">
-        <v>0.0003015177375326522</v>
+        <v>0.0002059601872662587</v>
       </c>
       <c r="T29">
-        <v>0.0003015177375326524</v>
+        <v>0.0002059601872662587</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H30">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I30">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J30">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>27.72393705547533</v>
+        <v>34.93329660389333</v>
       </c>
       <c r="R30">
-        <v>249.515433499278</v>
+        <v>314.39966943504</v>
       </c>
       <c r="S30">
-        <v>0.0001514589128495394</v>
+        <v>0.0001551356876462323</v>
       </c>
       <c r="T30">
-        <v>0.0001514589128495395</v>
+        <v>0.0001551356876462323</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H31">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I31">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J31">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>36.39520287657889</v>
+        <v>58.44642234981334</v>
       </c>
       <c r="R31">
-        <v>327.5568258892101</v>
+        <v>526.01780114832</v>
       </c>
       <c r="S31">
-        <v>0.0001988309903313823</v>
+        <v>0.0002595554042469005</v>
       </c>
       <c r="T31">
-        <v>0.0001988309903313824</v>
+        <v>0.0002595554042469006</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H32">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I32">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J32">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>24.48465271667733</v>
+        <v>19.92820922261734</v>
       </c>
       <c r="R32">
-        <v>220.361874450096</v>
+        <v>179.353883003556</v>
       </c>
       <c r="S32">
-        <v>0.0001337623467599843</v>
+        <v>8.84994186596226E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001337623467599844</v>
+        <v>8.849941865962262E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H33">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I33">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J33">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>37.61586277257955</v>
+        <v>16.41101438664267</v>
       </c>
       <c r="R33">
-        <v>338.542764953216</v>
+        <v>147.699129479784</v>
       </c>
       <c r="S33">
-        <v>0.000205499589399305</v>
+        <v>7.287986675612731E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002054995893993052</v>
+        <v>7.287986675612733E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H34">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I34">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J34">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>18.79638363453155</v>
+        <v>9.468033795513335</v>
       </c>
       <c r="R34">
-        <v>169.167452710784</v>
+        <v>85.21230415962002</v>
       </c>
       <c r="S34">
-        <v>0.000102686708063593</v>
+        <v>4.204670261097047E-05</v>
       </c>
       <c r="T34">
-        <v>0.000102686708063593</v>
+        <v>4.204670261097047E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H35">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I35">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J35">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>29.91778520395555</v>
+        <v>9.569859370895669</v>
       </c>
       <c r="R35">
-        <v>269.2600668356</v>
+        <v>86.12873433806102</v>
       </c>
       <c r="S35">
-        <v>0.0001634441462188442</v>
+        <v>4.249890100598685E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001634441462188443</v>
+        <v>4.249890100598686E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H36">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I36">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J36">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>15.02835375105066</v>
+        <v>7.208318917783668</v>
       </c>
       <c r="R36">
-        <v>135.255183759456</v>
+        <v>64.874870260053</v>
       </c>
       <c r="S36">
-        <v>8.210154699521286E-05</v>
+        <v>3.201150823993756E-05</v>
       </c>
       <c r="T36">
-        <v>8.210154699521288E-05</v>
+        <v>3.201150823993756E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H37">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I37">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J37">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>19.72879907265778</v>
+        <v>12.06014012012767</v>
       </c>
       <c r="R37">
-        <v>177.55919165392</v>
+        <v>108.541261081149</v>
       </c>
       <c r="S37">
-        <v>0.0001077805960023854</v>
+        <v>5.355801806684918E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001077805960023854</v>
+        <v>5.355801806684919E-05</v>
       </c>
     </row>
   </sheetData>
